--- a/IMP-FILES/Item-Prices.xlsx
+++ b/IMP-FILES/Item-Prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\Desktop\Backup FEB-24-2024 PERSONAL DATA\kshudha\IMP-FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B34485-D547-4438-AD89-C01D4EBECBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F62E5F-46DD-4B53-A7B5-FC1EE9487989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -200,19 +200,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -503,19 +498,19 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="12" customWidth="1"/>
     <col min="9" max="9" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -526,22 +521,22 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -551,12 +546,12 @@
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -566,22 +561,22 @@
       <c r="B3" s="2">
         <v>8.99</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <v>140</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>20</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <v>200</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>30</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <v>250</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -595,21 +590,21 @@
       <c r="B4" s="2">
         <v>5.99</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>36</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="2">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>24</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -619,21 +614,21 @@
       <c r="B5" s="2">
         <v>5.99</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2">
         <v>36</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>24</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -643,21 +638,21 @@
       <c r="B6" s="2">
         <v>5.99</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>24</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -667,21 +662,21 @@
       <c r="B7" s="2">
         <v>5.99</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="2">
         <v>36</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="2">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>24</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -691,52 +686,52 @@
       <c r="B8" s="2">
         <v>4.99</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <v>35</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="2">
         <v>70</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>24</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="9">
-        <v>40</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9">
-        <v>80</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="2">
+        <v>90</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
@@ -746,20 +741,20 @@
         <v>14</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="9">
-        <v>40</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9">
-        <v>80</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="2">
+        <v>85</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -767,20 +762,20 @@
         <v>15</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="2">
         <v>60</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -788,20 +783,20 @@
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>70</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <v>140</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
@@ -809,408 +804,408 @@
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="10"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="10"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="10"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="10"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="10"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="11"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="15"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="3"/>
     </row>
   </sheetData>
